--- a/data/forecast/sales_forecast_03_12.xlsx
+++ b/data/forecast/sales_forecast_03_12.xlsx
@@ -18,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1127</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -387,11 +387,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +411,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,99 +462,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -564,7 +519,7 @@
     <worksheetSource ref="A1:C1127" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="3">
-    <cacheField name="ds" numFmtId="165">
+    <cacheField name="ds" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-11-30T00:00:00" maxDate="2026-01-01T00:00:00" count="14">
         <d v="2025-03-31T00:00:00"/>
         <d v="2025-04-30T00:00:00"/>
@@ -6347,10 +6302,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:L116" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisCol" numFmtId="168" showAll="0">
+    <pivotField axis="axisCol" numFmtId="166" showAll="0">
       <items count="15">
         <item m="1" x="10"/>
         <item m="1" x="12"/>
@@ -6875,19 +6830,19 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Наименование" fld="1" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Наименование" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="22">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="0">
       <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -19606,10 +19561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23985,6 +23940,100 @@
         <v>25323043.477737427</v>
       </c>
     </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="8">
+        <v>13</v>
+      </c>
+      <c r="C118" s="9">
+        <v>20</v>
+      </c>
+      <c r="D118" s="9">
+        <v>21</v>
+      </c>
+      <c r="E118" s="9">
+        <v>22</v>
+      </c>
+      <c r="F118" s="9">
+        <v>18</v>
+      </c>
+      <c r="G118" s="9">
+        <v>19</v>
+      </c>
+      <c r="H118" s="9">
+        <v>23</v>
+      </c>
+      <c r="I118" s="9">
+        <v>21</v>
+      </c>
+      <c r="J118" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="11">
+        <f>(B88/21)*B118</f>
+        <v>96951.494791666672</v>
+      </c>
+      <c r="C119" s="11">
+        <f>GETPIVOTDATA("timesfm",$A$1,"ds",DATE(2025,4,30),"item","Фп Сб. Грудной №4 20x2,0г")</f>
+        <v>105036.75</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="11">
+        <f>A121-B119</f>
+        <v>144161.50520833331</v>
+      </c>
+      <c r="C120" s="11">
+        <f>B120-C119</f>
+        <v>39124.755208333314</v>
+      </c>
+      <c r="D120" s="11">
+        <f>GETPIVOTDATA("timesfm",$A$1,"ds",DATE(2025,5,31),"item","Фп Сб. Грудной №4 20x2,0г")/D118</f>
+        <v>2458.0104166666665</v>
+      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>241113</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10">
+        <f>C120/D120</f>
+        <v>15.917245485635819</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
